--- a/Reports.xlsx
+++ b/Reports.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="292">
   <si>
     <t>brand</t>
   </si>
@@ -889,13 +889,16 @@
   </si>
   <si>
     <t>Fashion Magazines</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -937,7 +940,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -946,19 +949,39 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -979,6 +1002,8 @@
           <c:trendline>
             <c:trendlineType val="linear"/>
             <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:strRef>
@@ -1045,6 +1070,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1066,6 +1092,8 @@
           <c:trendline>
             <c:trendlineType val="linear"/>
             <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:strRef>
@@ -1132,6 +1160,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1153,6 +1182,8 @@
           <c:trendline>
             <c:trendlineType val="linear"/>
             <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:strRef>
@@ -1219,34 +1250,51 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="150397312"/>
-        <c:axId val="150398848"/>
+        <c:smooth val="0"/>
+        <c:axId val="171411712"/>
+        <c:axId val="171421696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150397312"/>
+        <c:axId val="171411712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150398848"/>
+        <c:crossAx val="171421696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150398848"/>
+        <c:axId val="171421696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150397312"/>
+        <c:crossAx val="171411712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1254,8 +1302,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1301,8 +1352,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="M1:R2" totalsRowShown="0">
-  <autoFilter ref="M1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="L1:Q2" totalsRowShown="0">
+  <autoFilter ref="L1:Q2"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Families"/>
     <tableColumn id="2" name="Departments"/>
@@ -1316,22 +1367,28 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="P4:Q49" totalsRowShown="0">
-  <autoFilter ref="P4:Q49"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="P4:R49" totalsRowShown="0">
+  <autoFilter ref="P4:R49"/>
+  <tableColumns count="3">
     <tableColumn id="1" name="category"/>
     <tableColumn id="2" name="Orders"/>
+    <tableColumn id="3" name="%">
+      <calculatedColumnFormula>ROUNDUP(Q5/SUM(Table3[Orders])*100,2)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="M4:N7" totalsRowShown="0">
-  <autoFilter ref="M4:N7"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="L4:N7" totalsRowShown="0">
+  <autoFilter ref="L4:N7"/>
+  <tableColumns count="3">
     <tableColumn id="1" name="productFamily"/>
     <tableColumn id="2" name="Orders"/>
+    <tableColumn id="3" name="%" dataDxfId="1">
+      <calculatedColumnFormula>M5/SUM(M3,M4,M5)*100</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1356,33 +1413,42 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="M10:N32" totalsRowShown="0">
-  <autoFilter ref="M10:N32"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="L10:N32" totalsRowShown="0">
+  <autoFilter ref="L10:N32"/>
+  <tableColumns count="3">
     <tableColumn id="1" name="department"/>
     <tableColumn id="2" name="Orders"/>
+    <tableColumn id="3" name="%">
+      <calculatedColumnFormula>ROUNDUP(M11/SUM(Table6[Orders])*100,2)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="S4:T106" totalsRowShown="0">
-  <autoFilter ref="S4:T106"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="T4:V106" totalsRowShown="0">
+  <autoFilter ref="T4:V106"/>
+  <tableColumns count="3">
     <tableColumn id="1" name="subcategory"/>
     <tableColumn id="2" name="Orders"/>
+    <tableColumn id="3" name="%">
+      <calculatedColumnFormula>ROUNDUP(U5/SUM(Table7[Orders])*100,2)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="V4:W115" totalsRowShown="0">
-  <autoFilter ref="V4:W115"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="X4:Z115" totalsRowShown="0">
+  <autoFilter ref="X4:Z115"/>
+  <tableColumns count="3">
     <tableColumn id="1" name="brand"/>
     <tableColumn id="2" name="Orders"/>
+    <tableColumn id="3" name="%">
+      <calculatedColumnFormula>ROUNDUP(V5/SUM(Table8[Orders])*100,4)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1463,6 +1529,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1497,6 +1564,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1672,26 +1740,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:W115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Z115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
-    <col min="16" max="16" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" customWidth="1"/>
-    <col min="19" max="19" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" customWidth="1"/>
+    <col min="16" max="17" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>173</v>
       </c>
@@ -1719,26 +1789,26 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
+      <c r="L1" t="s">
+        <v>120</v>
+      </c>
       <c r="M1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q1" t="s">
-        <v>124</v>
-      </c>
-      <c r="R1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="2:23">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>176</v>
       </c>
@@ -1766,26 +1836,26 @@
       <c r="J2">
         <v>393</v>
       </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
       <c r="M2">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="N2">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="O2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="P2">
-        <v>102</v>
+        <v>1559</v>
       </c>
       <c r="Q2">
-        <v>1559</v>
-      </c>
-      <c r="R2">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="2:23">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>174</v>
       </c>
@@ -1814,7 +1884,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="4" spans="2:23">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>175</v>
       </c>
@@ -1842,11 +1912,14 @@
       <c r="J4">
         <v>739</v>
       </c>
+      <c r="L4" t="s">
+        <v>173</v>
+      </c>
       <c r="M4" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="N4" t="s">
-        <v>127</v>
+        <v>291</v>
       </c>
       <c r="P4" t="s">
         <v>126</v>
@@ -1854,25 +1927,38 @@
       <c r="Q4" t="s">
         <v>127</v>
       </c>
-      <c r="S4" t="s">
+      <c r="R4" t="s">
+        <v>291</v>
+      </c>
+      <c r="T4" t="s">
         <v>192</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>127</v>
       </c>
       <c r="V4" t="s">
+        <v>291</v>
+      </c>
+      <c r="X4" t="s">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="5" spans="2:23">
-      <c r="M5" t="s">
+      <c r="Z4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
         <v>174</v>
       </c>
+      <c r="M5">
+        <v>37964</v>
+      </c>
       <c r="N5">
-        <v>37964</v>
+        <f>ROUNDUP(M5/SUM(M5,M6,M7)*100,2)</f>
+        <v>69.540000000000006</v>
       </c>
       <c r="P5" t="s">
         <v>128</v>
@@ -1880,25 +1966,41 @@
       <c r="Q5">
         <v>6420</v>
       </c>
-      <c r="S5" t="s">
+      <c r="R5">
+        <f>ROUNDUP(Q5/SUM(Table3[Orders])*100,2)</f>
+        <v>11.76</v>
+      </c>
+      <c r="T5" t="s">
         <v>193</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>4181</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5">
+        <f>ROUNDUP(U5/SUM(Table7[Orders])*100,2)</f>
+        <v>7.66</v>
+      </c>
+      <c r="X5" t="s">
         <v>63</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>1810</v>
       </c>
-    </row>
-    <row r="6" spans="2:23">
-      <c r="M6" t="s">
+      <c r="Z5">
+        <f>ROUNDUP(V5/SUM(Table8[Orders])*100,4)</f>
+        <v>1.41E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
         <v>175</v>
       </c>
+      <c r="M6">
+        <v>10989</v>
+      </c>
       <c r="N6">
-        <v>10989</v>
+        <f>ROUNDUP(M6/SUM(M5,M6,M7)*100,2)</f>
+        <v>20.130000000000003</v>
       </c>
       <c r="P6" t="s">
         <v>129</v>
@@ -1906,25 +2008,41 @@
       <c r="Q6">
         <v>5835</v>
       </c>
-      <c r="S6" t="s">
+      <c r="R6">
+        <f>ROUNDUP(Q6/SUM(Table3[Orders])*100,2)</f>
+        <v>10.69</v>
+      </c>
+      <c r="T6" t="s">
         <v>194</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>2660</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6">
+        <f>ROUNDUP(U6/SUM(Table7[Orders])*100,2)</f>
+        <v>4.88</v>
+      </c>
+      <c r="X6" t="s">
         <v>42</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>1769</v>
       </c>
-    </row>
-    <row r="7" spans="2:23">
-      <c r="M7" t="s">
+      <c r="Z6">
+        <f>ROUNDUP(V6/SUM(Table8[Orders])*100,4)</f>
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
         <v>176</v>
       </c>
+      <c r="M7">
+        <v>5647</v>
+      </c>
       <c r="N7">
-        <v>5647</v>
+        <f>ROUNDUP(M7/SUM(M5,M6,M7)*100,2)</f>
+        <v>10.35</v>
       </c>
       <c r="P7" t="s">
         <v>130</v>
@@ -1932,65 +2050,104 @@
       <c r="Q7">
         <v>3258</v>
       </c>
-      <c r="S7" t="s">
+      <c r="R7">
+        <f>ROUNDUP(Q7/SUM(Table3[Orders])*100,2)</f>
+        <v>5.97</v>
+      </c>
+      <c r="T7" t="s">
         <v>195</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>2084</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V7">
+        <f>ROUNDUP(U7/SUM(Table7[Orders])*100,2)</f>
+        <v>3.82</v>
+      </c>
+      <c r="X7" t="s">
         <v>105</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>1538</v>
       </c>
-    </row>
-    <row r="8" spans="2:23">
+      <c r="Z7">
+        <f>ROUNDUP(V7/SUM(Table8[Orders])*100,4)</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="P8" t="s">
         <v>131</v>
       </c>
       <c r="Q8">
         <v>2924</v>
       </c>
-      <c r="S8" t="s">
+      <c r="R8">
+        <f>ROUNDUP(Q8/SUM(Table3[Orders])*100,2)</f>
+        <v>5.3599999999999994</v>
+      </c>
+      <c r="T8" t="s">
         <v>196</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>1592</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V8">
+        <f>ROUNDUP(U8/SUM(Table7[Orders])*100,2)</f>
+        <v>2.92</v>
+      </c>
+      <c r="X8" t="s">
         <v>109</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>1473</v>
       </c>
-    </row>
-    <row r="9" spans="2:23">
+      <c r="Z8">
+        <f>ROUNDUP(V8/SUM(Table8[Orders])*100,4)</f>
+        <v>5.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="P9" t="s">
         <v>132</v>
       </c>
       <c r="Q9">
         <v>2894</v>
       </c>
-      <c r="S9" t="s">
+      <c r="R9">
+        <f>ROUNDUP(Q9/SUM(Table3[Orders])*100,2)</f>
+        <v>5.31</v>
+      </c>
+      <c r="T9" t="s">
         <v>197</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>1489</v>
       </c>
-      <c r="V9" t="s">
+      <c r="V9">
+        <f>ROUNDUP(U9/SUM(Table7[Orders])*100,2)</f>
+        <v>2.73</v>
+      </c>
+      <c r="X9" t="s">
         <v>65</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>1463</v>
       </c>
-    </row>
-    <row r="10" spans="2:23">
+      <c r="Z9">
+        <f>ROUNDUP(V9/SUM(Table8[Orders])*100,4)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>177</v>
+      </c>
       <c r="M10" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="N10" t="s">
-        <v>127</v>
+        <v>291</v>
       </c>
       <c r="P10" t="s">
         <v>133</v>
@@ -1998,25 +2155,41 @@
       <c r="Q10">
         <v>2792</v>
       </c>
-      <c r="S10" t="s">
+      <c r="R10">
+        <f>ROUNDUP(Q10/SUM(Table3[Orders])*100,2)</f>
+        <v>5.12</v>
+      </c>
+      <c r="T10" t="s">
         <v>198</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1213</v>
       </c>
-      <c r="V10" t="s">
+      <c r="V10">
+        <f>ROUNDUP(U10/SUM(Table7[Orders])*100,2)</f>
+        <v>2.23</v>
+      </c>
+      <c r="X10" t="s">
         <v>67</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>1446</v>
       </c>
-    </row>
-    <row r="11" spans="2:23">
-      <c r="M11" t="s">
+      <c r="Z10">
+        <f>ROUNDUP(V10/SUM(Table8[Orders])*100,4)</f>
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
         <v>178</v>
       </c>
+      <c r="M11">
+        <v>7921</v>
+      </c>
       <c r="N11">
-        <v>7921</v>
+        <f>ROUNDUP(M11/SUM(Table6[Orders])*100,2)</f>
+        <v>14.51</v>
       </c>
       <c r="P11" t="s">
         <v>134</v>
@@ -2024,25 +2197,41 @@
       <c r="Q11">
         <v>2084</v>
       </c>
-      <c r="S11" t="s">
+      <c r="R11">
+        <f>ROUNDUP(Q11/SUM(Table3[Orders])*100,2)</f>
+        <v>3.82</v>
+      </c>
+      <c r="T11" t="s">
         <v>199</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>1119</v>
       </c>
-      <c r="V11" t="s">
+      <c r="V11">
+        <f>ROUNDUP(U11/SUM(Table7[Orders])*100,2)</f>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="X11" t="s">
         <v>35</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>1427</v>
       </c>
-    </row>
-    <row r="12" spans="2:23">
-      <c r="M12" t="s">
+      <c r="Z11">
+        <f>ROUNDUP(V11/SUM(Table8[Orders])*100,4)</f>
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
         <v>179</v>
       </c>
+      <c r="M12">
+        <v>6298</v>
+      </c>
       <c r="N12">
-        <v>6298</v>
+        <f>ROUNDUP(M12/SUM(Table6[Orders])*100,2)</f>
+        <v>11.54</v>
       </c>
       <c r="P12" t="s">
         <v>135</v>
@@ -2050,25 +2239,41 @@
       <c r="Q12">
         <v>1608</v>
       </c>
-      <c r="S12" t="s">
+      <c r="R12">
+        <f>ROUNDUP(Q12/SUM(Table3[Orders])*100,2)</f>
+        <v>2.9499999999999997</v>
+      </c>
+      <c r="T12" t="s">
         <v>200</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>988</v>
       </c>
-      <c r="V12" t="s">
+      <c r="V12">
+        <f>ROUNDUP(U12/SUM(Table7[Orders])*100,2)</f>
+        <v>1.81</v>
+      </c>
+      <c r="X12" t="s">
         <v>116</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>1406</v>
       </c>
-    </row>
-    <row r="13" spans="2:23">
-      <c r="M13" t="s">
+      <c r="Z12">
+        <f>ROUNDUP(V12/SUM(Table8[Orders])*100,4)</f>
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
         <v>129</v>
       </c>
+      <c r="M13">
+        <v>5835</v>
+      </c>
       <c r="N13">
-        <v>5835</v>
+        <f>ROUNDUP(M13/SUM(Table6[Orders])*100,2)</f>
+        <v>10.69</v>
       </c>
       <c r="P13" t="s">
         <v>136</v>
@@ -2076,25 +2281,41 @@
       <c r="Q13">
         <v>1541</v>
       </c>
-      <c r="S13" t="s">
+      <c r="R13">
+        <f>ROUNDUP(Q13/SUM(Table3[Orders])*100,2)</f>
+        <v>2.8299999999999996</v>
+      </c>
+      <c r="T13" t="s">
         <v>201</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>979</v>
       </c>
-      <c r="V13" t="s">
+      <c r="V13">
+        <f>ROUNDUP(U13/SUM(Table7[Orders])*100,2)</f>
+        <v>1.8</v>
+      </c>
+      <c r="X13" t="s">
         <v>28</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>1377</v>
       </c>
-    </row>
-    <row r="14" spans="2:23">
-      <c r="M14" t="s">
+      <c r="Z13">
+        <f>ROUNDUP(V13/SUM(Table8[Orders])*100,4)</f>
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
         <v>180</v>
       </c>
+      <c r="M14">
+        <v>4902</v>
+      </c>
       <c r="N14">
-        <v>4902</v>
+        <f>ROUNDUP(M14/SUM(Table6[Orders])*100,2)</f>
+        <v>8.98</v>
       </c>
       <c r="P14" t="s">
         <v>137</v>
@@ -2102,25 +2323,41 @@
       <c r="Q14">
         <v>1475</v>
       </c>
-      <c r="S14" t="s">
+      <c r="R14">
+        <f>ROUNDUP(Q14/SUM(Table3[Orders])*100,2)</f>
+        <v>2.71</v>
+      </c>
+      <c r="T14" t="s">
         <v>202</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>922</v>
       </c>
-      <c r="V14" t="s">
+      <c r="V14">
+        <f>ROUNDUP(U14/SUM(Table7[Orders])*100,2)</f>
+        <v>1.69</v>
+      </c>
+      <c r="X14" t="s">
         <v>86</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>1310</v>
       </c>
-    </row>
-    <row r="15" spans="2:23">
-      <c r="M15" t="s">
+      <c r="Z14">
+        <f>ROUNDUP(V14/SUM(Table8[Orders])*100,4)</f>
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
         <v>181</v>
       </c>
+      <c r="M15">
+        <v>4066</v>
+      </c>
       <c r="N15">
-        <v>4066</v>
+        <f>ROUNDUP(M15/SUM(Table6[Orders])*100,2)</f>
+        <v>7.45</v>
       </c>
       <c r="P15" t="s">
         <v>138</v>
@@ -2128,25 +2365,41 @@
       <c r="Q15">
         <v>1470</v>
       </c>
-      <c r="S15" t="s">
+      <c r="R15">
+        <f>ROUNDUP(Q15/SUM(Table3[Orders])*100,2)</f>
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="T15" t="s">
         <v>203</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>891</v>
       </c>
-      <c r="V15" t="s">
+      <c r="V15">
+        <f>ROUNDUP(U15/SUM(Table7[Orders])*100,2)</f>
+        <v>1.64</v>
+      </c>
+      <c r="X15" t="s">
         <v>78</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <v>1202</v>
       </c>
-    </row>
-    <row r="16" spans="2:23">
-      <c r="M16" t="s">
+      <c r="Z15">
+        <f>ROUNDUP(V15/SUM(Table8[Orders])*100,4)</f>
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
         <v>143</v>
       </c>
+      <c r="M16">
+        <v>4044</v>
+      </c>
       <c r="N16">
-        <v>4044</v>
+        <f>ROUNDUP(M16/SUM(Table6[Orders])*100,2)</f>
+        <v>7.41</v>
       </c>
       <c r="P16" t="s">
         <v>139</v>
@@ -2154,25 +2407,41 @@
       <c r="Q16">
         <v>1439</v>
       </c>
-      <c r="S16" t="s">
+      <c r="R16">
+        <f>ROUNDUP(Q16/SUM(Table3[Orders])*100,2)</f>
+        <v>2.6399999999999997</v>
+      </c>
+      <c r="T16" t="s">
         <v>204</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>874</v>
       </c>
-      <c r="V16" t="s">
+      <c r="V16">
+        <f>ROUNDUP(U16/SUM(Table7[Orders])*100,2)</f>
+        <v>1.61</v>
+      </c>
+      <c r="X16" t="s">
         <v>20</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <v>1181</v>
       </c>
-    </row>
-    <row r="17" spans="13:23">
-      <c r="M17" t="s">
+      <c r="Z16">
+        <f>ROUNDUP(V16/SUM(Table8[Orders])*100,4)</f>
+        <v>2.9999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
         <v>182</v>
       </c>
+      <c r="M17">
+        <v>3387</v>
+      </c>
       <c r="N17">
-        <v>3387</v>
+        <f>ROUNDUP(M17/SUM(Table6[Orders])*100,2)</f>
+        <v>6.21</v>
       </c>
       <c r="P17" t="s">
         <v>140</v>
@@ -2180,25 +2449,41 @@
       <c r="Q17">
         <v>1317</v>
       </c>
-      <c r="S17" t="s">
+      <c r="R17">
+        <f>ROUNDUP(Q17/SUM(Table3[Orders])*100,2)</f>
+        <v>2.42</v>
+      </c>
+      <c r="T17" t="s">
         <v>205</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>772</v>
       </c>
-      <c r="V17" t="s">
+      <c r="V17">
+        <f>ROUNDUP(U17/SUM(Table7[Orders])*100,2)</f>
+        <v>1.42</v>
+      </c>
+      <c r="X17" t="s">
         <v>38</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <v>1177</v>
       </c>
-    </row>
-    <row r="18" spans="13:23">
-      <c r="M18" t="s">
+      <c r="Z17">
+        <f>ROUNDUP(V17/SUM(Table8[Orders])*100,4)</f>
+        <v>2.6999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
         <v>183</v>
       </c>
+      <c r="M18">
+        <v>3385</v>
+      </c>
       <c r="N18">
-        <v>3385</v>
+        <f>ROUNDUP(M18/SUM(Table6[Orders])*100,2)</f>
+        <v>6.2</v>
       </c>
       <c r="P18" t="s">
         <v>141</v>
@@ -2206,25 +2491,41 @@
       <c r="Q18">
         <v>1292</v>
       </c>
-      <c r="S18" t="s">
+      <c r="R18">
+        <f>ROUNDUP(Q18/SUM(Table3[Orders])*100,2)</f>
+        <v>2.3699999999999997</v>
+      </c>
+      <c r="T18" t="s">
         <v>206</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>764</v>
       </c>
-      <c r="V18" t="s">
+      <c r="V18">
+        <f>ROUNDUP(U18/SUM(Table7[Orders])*100,2)</f>
+        <v>1.4</v>
+      </c>
+      <c r="X18" t="s">
         <v>15</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
         <v>1165</v>
       </c>
-    </row>
-    <row r="19" spans="13:23">
-      <c r="M19" t="s">
+      <c r="Z18">
+        <f>ROUNDUP(V18/SUM(Table8[Orders])*100,4)</f>
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
         <v>130</v>
       </c>
+      <c r="M19">
+        <v>3258</v>
+      </c>
       <c r="N19">
-        <v>3258</v>
+        <f>ROUNDUP(M19/SUM(Table6[Orders])*100,2)</f>
+        <v>5.97</v>
       </c>
       <c r="P19" t="s">
         <v>142</v>
@@ -2232,25 +2533,41 @@
       <c r="Q19">
         <v>1264</v>
       </c>
-      <c r="S19" t="s">
+      <c r="R19">
+        <f>ROUNDUP(Q19/SUM(Table3[Orders])*100,2)</f>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="T19" t="s">
         <v>207</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>760</v>
       </c>
-      <c r="V19" t="s">
+      <c r="V19">
+        <f>ROUNDUP(U19/SUM(Table7[Orders])*100,2)</f>
+        <v>1.4</v>
+      </c>
+      <c r="X19" t="s">
         <v>97</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <v>1161</v>
       </c>
-    </row>
-    <row r="20" spans="13:23">
-      <c r="M20" t="s">
+      <c r="Z19">
+        <f>ROUNDUP(V19/SUM(Table8[Orders])*100,4)</f>
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
         <v>184</v>
       </c>
+      <c r="M20">
+        <v>2830</v>
+      </c>
       <c r="N20">
-        <v>2830</v>
+        <f>ROUNDUP(M20/SUM(Table6[Orders])*100,2)</f>
+        <v>5.1899999999999995</v>
       </c>
       <c r="P20" t="s">
         <v>143</v>
@@ -2258,25 +2575,41 @@
       <c r="Q20">
         <v>1252</v>
       </c>
-      <c r="S20" t="s">
+      <c r="R20">
+        <f>ROUNDUP(Q20/SUM(Table3[Orders])*100,2)</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T20" t="s">
         <v>208</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>759</v>
       </c>
-      <c r="V20" t="s">
+      <c r="V20">
+        <f>ROUNDUP(U20/SUM(Table7[Orders])*100,2)</f>
+        <v>1.4</v>
+      </c>
+      <c r="X20" t="s">
         <v>17</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
         <v>1149</v>
       </c>
-    </row>
-    <row r="21" spans="13:23">
-      <c r="M21" t="s">
+      <c r="Z20">
+        <f>ROUNDUP(V20/SUM(Table8[Orders])*100,4)</f>
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
         <v>185</v>
       </c>
+      <c r="M21">
+        <v>1608</v>
+      </c>
       <c r="N21">
-        <v>1608</v>
+        <f>ROUNDUP(M21/SUM(Table6[Orders])*100,2)</f>
+        <v>2.9499999999999997</v>
       </c>
       <c r="P21" t="s">
         <v>144</v>
@@ -2284,25 +2617,41 @@
       <c r="Q21">
         <v>1100</v>
       </c>
-      <c r="S21" t="s">
+      <c r="R21">
+        <f>ROUNDUP(Q21/SUM(Table3[Orders])*100,2)</f>
+        <v>2.0199999999999996</v>
+      </c>
+      <c r="T21" t="s">
         <v>209</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>756</v>
       </c>
-      <c r="V21" t="s">
+      <c r="V21">
+        <f>ROUNDUP(U21/SUM(Table7[Orders])*100,2)</f>
+        <v>1.39</v>
+      </c>
+      <c r="X21" t="s">
         <v>29</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
         <v>1124</v>
       </c>
-    </row>
-    <row r="22" spans="13:23">
-      <c r="M22" t="s">
+      <c r="Z21">
+        <f>ROUNDUP(V21/SUM(Table8[Orders])*100,4)</f>
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
         <v>186</v>
       </c>
+      <c r="M22">
+        <v>1541</v>
+      </c>
       <c r="N22">
-        <v>1541</v>
+        <f>ROUNDUP(M22/SUM(Table6[Orders])*100,2)</f>
+        <v>2.8299999999999996</v>
       </c>
       <c r="P22" t="s">
         <v>145</v>
@@ -2310,25 +2659,41 @@
       <c r="Q22">
         <v>988</v>
       </c>
-      <c r="S22" t="s">
+      <c r="R22">
+        <f>ROUNDUP(Q22/SUM(Table3[Orders])*100,2)</f>
+        <v>1.81</v>
+      </c>
+      <c r="T22" t="s">
         <v>210</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>752</v>
       </c>
-      <c r="V22" t="s">
+      <c r="V22">
+        <f>ROUNDUP(U22/SUM(Table7[Orders])*100,2)</f>
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="X22" t="s">
         <v>64</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
         <v>995</v>
       </c>
-    </row>
-    <row r="23" spans="13:23">
-      <c r="M23" t="s">
+      <c r="Z22">
+        <f>ROUNDUP(V22/SUM(Table8[Orders])*100,4)</f>
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
         <v>187</v>
       </c>
+      <c r="M23">
+        <v>1264</v>
+      </c>
       <c r="N23">
-        <v>1264</v>
+        <f>ROUNDUP(M23/SUM(Table6[Orders])*100,2)</f>
+        <v>2.3199999999999998</v>
       </c>
       <c r="P23" t="s">
         <v>146</v>
@@ -2336,25 +2701,41 @@
       <c r="Q23">
         <v>985</v>
       </c>
-      <c r="S23" t="s">
+      <c r="R23">
+        <f>ROUNDUP(Q23/SUM(Table3[Orders])*100,2)</f>
+        <v>1.81</v>
+      </c>
+      <c r="T23" t="s">
         <v>211</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>752</v>
       </c>
-      <c r="V23" t="s">
+      <c r="V23">
+        <f>ROUNDUP(U23/SUM(Table7[Orders])*100,2)</f>
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="X23" t="s">
         <v>51</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
         <v>993</v>
       </c>
-    </row>
-    <row r="24" spans="13:23">
-      <c r="M24" t="s">
+      <c r="Z23">
+        <f>ROUNDUP(V23/SUM(Table8[Orders])*100,4)</f>
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
         <v>146</v>
       </c>
+      <c r="M24">
+        <v>985</v>
+      </c>
       <c r="N24">
-        <v>985</v>
+        <f>ROUNDUP(M24/SUM(Table6[Orders])*100,2)</f>
+        <v>1.81</v>
       </c>
       <c r="P24" t="s">
         <v>147</v>
@@ -2362,25 +2743,41 @@
       <c r="Q24">
         <v>979</v>
       </c>
-      <c r="S24" t="s">
+      <c r="R24">
+        <f>ROUNDUP(Q24/SUM(Table3[Orders])*100,2)</f>
+        <v>1.8</v>
+      </c>
+      <c r="T24" t="s">
         <v>212</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>748</v>
       </c>
-      <c r="V24" t="s">
+      <c r="V24">
+        <f>ROUNDUP(U24/SUM(Table7[Orders])*100,2)</f>
+        <v>1.37</v>
+      </c>
+      <c r="X24" t="s">
         <v>48</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
         <v>937</v>
       </c>
-    </row>
-    <row r="25" spans="13:23">
-      <c r="M25" t="s">
+      <c r="Z24">
+        <f>ROUNDUP(V24/SUM(Table8[Orders])*100,4)</f>
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
         <v>188</v>
       </c>
+      <c r="M25">
+        <v>733</v>
+      </c>
       <c r="N25">
-        <v>733</v>
+        <f>ROUNDUP(M25/SUM(Table6[Orders])*100,2)</f>
+        <v>1.35</v>
       </c>
       <c r="P25" t="s">
         <v>148</v>
@@ -2388,25 +2785,41 @@
       <c r="Q25">
         <v>922</v>
       </c>
-      <c r="S25" t="s">
+      <c r="R25">
+        <f>ROUNDUP(Q25/SUM(Table3[Orders])*100,2)</f>
+        <v>1.69</v>
+      </c>
+      <c r="T25" t="s">
         <v>213</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>727</v>
       </c>
-      <c r="V25" t="s">
+      <c r="V25">
+        <f>ROUNDUP(U25/SUM(Table7[Orders])*100,2)</f>
+        <v>1.34</v>
+      </c>
+      <c r="X25" t="s">
         <v>90</v>
       </c>
-      <c r="W25">
+      <c r="Y25">
         <v>912</v>
       </c>
-    </row>
-    <row r="26" spans="13:23">
-      <c r="M26" t="s">
+      <c r="Z25">
+        <f>ROUNDUP(V25/SUM(Table8[Orders])*100,4)</f>
+        <v>2.4999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
         <v>153</v>
       </c>
+      <c r="M26">
+        <v>653</v>
+      </c>
       <c r="N26">
-        <v>653</v>
+        <f>ROUNDUP(M26/SUM(Table6[Orders])*100,2)</f>
+        <v>1.2</v>
       </c>
       <c r="P26" t="s">
         <v>149</v>
@@ -2414,25 +2827,41 @@
       <c r="Q26">
         <v>797</v>
       </c>
-      <c r="S26" t="s">
+      <c r="R26">
+        <f>ROUNDUP(Q26/SUM(Table3[Orders])*100,2)</f>
+        <v>1.46</v>
+      </c>
+      <c r="T26" t="s">
         <v>214</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>718</v>
       </c>
-      <c r="V26" t="s">
+      <c r="V26">
+        <f>ROUNDUP(U26/SUM(Table7[Orders])*100,2)</f>
+        <v>1.32</v>
+      </c>
+      <c r="X26" t="s">
         <v>18</v>
       </c>
-      <c r="W26">
+      <c r="Y26">
         <v>858</v>
       </c>
-    </row>
-    <row r="27" spans="13:23">
-      <c r="M27" t="s">
+      <c r="Z26">
+        <f>ROUNDUP(V26/SUM(Table8[Orders])*100,4)</f>
+        <v>2.4999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
         <v>162</v>
       </c>
+      <c r="M27">
+        <v>419</v>
+      </c>
       <c r="N27">
-        <v>419</v>
+        <f>ROUNDUP(M27/SUM(Table6[Orders])*100,2)</f>
+        <v>0.77</v>
       </c>
       <c r="P27" t="s">
         <v>150</v>
@@ -2440,25 +2869,41 @@
       <c r="Q27">
         <v>733</v>
       </c>
-      <c r="S27" t="s">
+      <c r="R27">
+        <f>ROUNDUP(Q27/SUM(Table3[Orders])*100,2)</f>
+        <v>1.35</v>
+      </c>
+      <c r="T27" t="s">
         <v>215</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>711</v>
       </c>
-      <c r="V27" t="s">
+      <c r="V27">
+        <f>ROUNDUP(U27/SUM(Table7[Orders])*100,2)</f>
+        <v>1.31</v>
+      </c>
+      <c r="X27" t="s">
         <v>23</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
         <v>840</v>
       </c>
-    </row>
-    <row r="28" spans="13:23">
-      <c r="M28" t="s">
+      <c r="Z27">
+        <f>ROUNDUP(V27/SUM(Table8[Orders])*100,4)</f>
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
         <v>132</v>
       </c>
+      <c r="M28">
+        <v>406</v>
+      </c>
       <c r="N28">
-        <v>406</v>
+        <f>ROUNDUP(M28/SUM(Table6[Orders])*100,2)</f>
+        <v>0.75</v>
       </c>
       <c r="P28" t="s">
         <v>151</v>
@@ -2466,25 +2911,41 @@
       <c r="Q28">
         <v>682</v>
       </c>
-      <c r="S28" t="s">
+      <c r="R28">
+        <f>ROUNDUP(Q28/SUM(Table3[Orders])*100,2)</f>
+        <v>1.25</v>
+      </c>
+      <c r="T28" t="s">
         <v>216</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>710</v>
       </c>
-      <c r="V28" t="s">
+      <c r="V28">
+        <f>ROUNDUP(U28/SUM(Table7[Orders])*100,2)</f>
+        <v>1.31</v>
+      </c>
+      <c r="X28" t="s">
         <v>104</v>
       </c>
-      <c r="W28">
+      <c r="Y28">
         <v>831</v>
       </c>
-    </row>
-    <row r="29" spans="13:23">
-      <c r="M29" t="s">
+      <c r="Z28">
+        <f>ROUNDUP(V28/SUM(Table8[Orders])*100,4)</f>
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
         <v>189</v>
       </c>
+      <c r="M29">
+        <v>310</v>
+      </c>
       <c r="N29">
-        <v>310</v>
+        <f>ROUNDUP(M29/SUM(Table6[Orders])*100,2)</f>
+        <v>0.57000000000000006</v>
       </c>
       <c r="P29" t="s">
         <v>152</v>
@@ -2492,25 +2953,41 @@
       <c r="Q29">
         <v>678</v>
       </c>
-      <c r="S29" t="s">
+      <c r="R29">
+        <f>ROUNDUP(Q29/SUM(Table3[Orders])*100,2)</f>
+        <v>1.25</v>
+      </c>
+      <c r="T29" t="s">
         <v>217</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>699</v>
       </c>
-      <c r="V29" t="s">
+      <c r="V29">
+        <f>ROUNDUP(U29/SUM(Table7[Orders])*100,2)</f>
+        <v>1.29</v>
+      </c>
+      <c r="X29" t="s">
         <v>68</v>
       </c>
-      <c r="W29">
+      <c r="Y29">
         <v>810</v>
       </c>
-    </row>
-    <row r="30" spans="13:23">
-      <c r="M30" t="s">
+      <c r="Z29">
+        <f>ROUNDUP(V29/SUM(Table8[Orders])*100,4)</f>
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
         <v>190</v>
       </c>
+      <c r="M30">
+        <v>264</v>
+      </c>
       <c r="N30">
-        <v>264</v>
+        <f>ROUNDUP(M30/SUM(Table6[Orders])*100,2)</f>
+        <v>0.49</v>
       </c>
       <c r="P30" t="s">
         <v>153</v>
@@ -2518,25 +2995,41 @@
       <c r="Q30">
         <v>653</v>
       </c>
-      <c r="S30" t="s">
+      <c r="R30">
+        <f>ROUNDUP(Q30/SUM(Table3[Orders])*100,2)</f>
+        <v>1.2</v>
+      </c>
+      <c r="T30" t="s">
         <v>218</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>682</v>
       </c>
-      <c r="V30" t="s">
+      <c r="V30">
+        <f>ROUNDUP(U30/SUM(Table7[Orders])*100,2)</f>
+        <v>1.25</v>
+      </c>
+      <c r="X30" t="s">
         <v>27</v>
       </c>
-      <c r="W30">
+      <c r="Y30">
         <v>791</v>
       </c>
-    </row>
-    <row r="31" spans="13:23">
-      <c r="M31" t="s">
+      <c r="Z30">
+        <f>ROUNDUP(V30/SUM(Table8[Orders])*100,4)</f>
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="L31" t="s">
         <v>191</v>
       </c>
+      <c r="M31">
+        <v>261</v>
+      </c>
       <c r="N31">
-        <v>261</v>
+        <f>ROUNDUP(M31/SUM(Table6[Orders])*100,2)</f>
+        <v>0.48</v>
       </c>
       <c r="P31" t="s">
         <v>154</v>
@@ -2544,25 +3037,41 @@
       <c r="Q31">
         <v>619</v>
       </c>
-      <c r="S31" t="s">
+      <c r="R31">
+        <f>ROUNDUP(Q31/SUM(Table3[Orders])*100,2)</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="T31" t="s">
         <v>219</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>678</v>
       </c>
-      <c r="V31" t="s">
+      <c r="V31">
+        <f>ROUNDUP(U31/SUM(Table7[Orders])*100,2)</f>
+        <v>1.25</v>
+      </c>
+      <c r="X31" t="s">
         <v>74</v>
       </c>
-      <c r="W31">
+      <c r="Y31">
         <v>789</v>
       </c>
-    </row>
-    <row r="32" spans="13:23">
-      <c r="M32" t="s">
+      <c r="Z31">
+        <f>ROUNDUP(V31/SUM(Table8[Orders])*100,4)</f>
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
         <v>140</v>
       </c>
+      <c r="M32">
+        <v>230</v>
+      </c>
       <c r="N32">
-        <v>230</v>
+        <f>ROUNDUP(M32/SUM(Table6[Orders])*100,2)</f>
+        <v>0.43</v>
       </c>
       <c r="P32" t="s">
         <v>155</v>
@@ -2570,1227 +3079,1935 @@
       <c r="Q32">
         <v>615</v>
       </c>
-      <c r="S32" t="s">
+      <c r="R32">
+        <f>ROUNDUP(Q32/SUM(Table3[Orders])*100,2)</f>
+        <v>1.1300000000000001</v>
+      </c>
+      <c r="T32" t="s">
         <v>220</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>671</v>
       </c>
-      <c r="V32" t="s">
+      <c r="V32">
+        <f>ROUNDUP(U32/SUM(Table7[Orders])*100,2)</f>
+        <v>1.23</v>
+      </c>
+      <c r="X32" t="s">
         <v>46</v>
       </c>
-      <c r="W32">
+      <c r="Y32">
         <v>785</v>
       </c>
-    </row>
-    <row r="33" spans="16:23">
+      <c r="Z32">
+        <f>ROUNDUP(V32/SUM(Table8[Orders])*100,4)</f>
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="16:26" x14ac:dyDescent="0.25">
       <c r="P33" t="s">
         <v>156</v>
       </c>
       <c r="Q33">
         <v>576</v>
       </c>
-      <c r="S33" t="s">
+      <c r="R33">
+        <f>ROUNDUP(Q33/SUM(Table3[Orders])*100,2)</f>
+        <v>1.06</v>
+      </c>
+      <c r="T33" t="s">
         <v>221</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>657</v>
       </c>
-      <c r="V33" t="s">
+      <c r="V33">
+        <f>ROUNDUP(U33/SUM(Table7[Orders])*100,2)</f>
+        <v>1.21</v>
+      </c>
+      <c r="X33" t="s">
         <v>49</v>
       </c>
-      <c r="W33">
+      <c r="Y33">
         <v>782</v>
       </c>
-    </row>
-    <row r="34" spans="16:23">
+      <c r="Z33">
+        <f>ROUNDUP(V33/SUM(Table8[Orders])*100,4)</f>
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="16:26" x14ac:dyDescent="0.25">
       <c r="P34" t="s">
         <v>157</v>
       </c>
       <c r="Q34">
         <v>563</v>
       </c>
-      <c r="S34" t="s">
+      <c r="R34">
+        <f>ROUNDUP(Q34/SUM(Table3[Orders])*100,2)</f>
+        <v>1.04</v>
+      </c>
+      <c r="T34" t="s">
         <v>222</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>654</v>
       </c>
-      <c r="V34" t="s">
+      <c r="V34">
+        <f>ROUNDUP(U34/SUM(Table7[Orders])*100,2)</f>
+        <v>1.2</v>
+      </c>
+      <c r="X34" t="s">
         <v>88</v>
       </c>
-      <c r="W34">
+      <c r="Y34">
         <v>772</v>
       </c>
-    </row>
-    <row r="35" spans="16:23">
+      <c r="Z34">
+        <f>ROUNDUP(V34/SUM(Table8[Orders])*100,4)</f>
+        <v>2.1999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="16:26" x14ac:dyDescent="0.25">
       <c r="P35" t="s">
         <v>158</v>
       </c>
       <c r="Q35">
         <v>554</v>
       </c>
-      <c r="S35" t="s">
+      <c r="R35">
+        <f>ROUNDUP(Q35/SUM(Table3[Orders])*100,2)</f>
+        <v>1.02</v>
+      </c>
+      <c r="T35" t="s">
         <v>153</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>653</v>
       </c>
-      <c r="V35" t="s">
+      <c r="V35">
+        <f>ROUNDUP(U35/SUM(Table7[Orders])*100,2)</f>
+        <v>1.2</v>
+      </c>
+      <c r="X35" t="s">
         <v>57</v>
       </c>
-      <c r="W35">
+      <c r="Y35">
         <v>762</v>
       </c>
-    </row>
-    <row r="36" spans="16:23">
+      <c r="Z35">
+        <f>ROUNDUP(V35/SUM(Table8[Orders])*100,4)</f>
+        <v>2.1999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="16:26" x14ac:dyDescent="0.25">
       <c r="P36" t="s">
         <v>159</v>
       </c>
       <c r="Q36">
         <v>518</v>
       </c>
-      <c r="S36" t="s">
+      <c r="R36">
+        <f>ROUNDUP(Q36/SUM(Table3[Orders])*100,2)</f>
+        <v>0.95</v>
+      </c>
+      <c r="T36" t="s">
         <v>154</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>619</v>
       </c>
-      <c r="V36" t="s">
+      <c r="V36">
+        <f>ROUNDUP(U36/SUM(Table7[Orders])*100,2)</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="X36" t="s">
         <v>37</v>
       </c>
-      <c r="W36">
+      <c r="Y36">
         <v>762</v>
       </c>
-    </row>
-    <row r="37" spans="16:23">
+      <c r="Z36">
+        <f>ROUNDUP(V36/SUM(Table8[Orders])*100,4)</f>
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="16:26" x14ac:dyDescent="0.25">
       <c r="P37" t="s">
         <v>160</v>
       </c>
       <c r="Q37">
         <v>477</v>
       </c>
-      <c r="S37" t="s">
+      <c r="R37">
+        <f>ROUNDUP(Q37/SUM(Table3[Orders])*100,2)</f>
+        <v>0.88</v>
+      </c>
+      <c r="T37" t="s">
         <v>223</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>601</v>
       </c>
-      <c r="V37" t="s">
+      <c r="V37">
+        <f>ROUNDUP(U37/SUM(Table7[Orders])*100,2)</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="X37" t="s">
         <v>106</v>
       </c>
-      <c r="W37">
+      <c r="Y37">
         <v>739</v>
       </c>
-    </row>
-    <row r="38" spans="16:23">
+      <c r="Z37">
+        <f>ROUNDUP(V37/SUM(Table8[Orders])*100,4)</f>
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="16:26" x14ac:dyDescent="0.25">
       <c r="P38" t="s">
         <v>161</v>
       </c>
       <c r="Q38">
         <v>431</v>
       </c>
-      <c r="S38" t="s">
+      <c r="R38">
+        <f>ROUNDUP(Q38/SUM(Table3[Orders])*100,2)</f>
+        <v>0.79</v>
+      </c>
+      <c r="T38" t="s">
         <v>224</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>594</v>
       </c>
-      <c r="V38" t="s">
+      <c r="V38">
+        <f>ROUNDUP(U38/SUM(Table7[Orders])*100,2)</f>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="X38" t="s">
         <v>26</v>
       </c>
-      <c r="W38">
+      <c r="Y38">
         <v>667</v>
       </c>
-    </row>
-    <row r="39" spans="16:23">
+      <c r="Z38">
+        <f>ROUNDUP(V38/SUM(Table8[Orders])*100,4)</f>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="16:26" x14ac:dyDescent="0.25">
       <c r="P39" t="s">
         <v>162</v>
       </c>
       <c r="Q39">
         <v>419</v>
       </c>
-      <c r="S39" t="s">
+      <c r="R39">
+        <f>ROUNDUP(Q39/SUM(Table3[Orders])*100,2)</f>
+        <v>0.77</v>
+      </c>
+      <c r="T39" t="s">
         <v>225</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>580</v>
       </c>
-      <c r="V39" t="s">
+      <c r="V39">
+        <f>ROUNDUP(U39/SUM(Table7[Orders])*100,2)</f>
+        <v>1.07</v>
+      </c>
+      <c r="X39" t="s">
         <v>25</v>
       </c>
-      <c r="W39">
+      <c r="Y39">
         <v>649</v>
       </c>
-    </row>
-    <row r="40" spans="16:23">
+      <c r="Z39">
+        <f>ROUNDUP(V39/SUM(Table8[Orders])*100,4)</f>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="16:26" x14ac:dyDescent="0.25">
       <c r="P40" t="s">
         <v>163</v>
       </c>
       <c r="Q40">
         <v>362</v>
       </c>
-      <c r="S40" t="s">
+      <c r="R40">
+        <f>ROUNDUP(Q40/SUM(Table3[Orders])*100,2)</f>
+        <v>0.67</v>
+      </c>
+      <c r="T40" t="s">
         <v>226</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>576</v>
       </c>
-      <c r="V40" t="s">
+      <c r="V40">
+        <f>ROUNDUP(U40/SUM(Table7[Orders])*100,2)</f>
+        <v>1.06</v>
+      </c>
+      <c r="X40" t="s">
         <v>119</v>
       </c>
-      <c r="W40">
+      <c r="Y40">
         <v>648</v>
       </c>
-    </row>
-    <row r="41" spans="16:23">
+      <c r="Z40">
+        <f>ROUNDUP(V40/SUM(Table8[Orders])*100,4)</f>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="16:26" x14ac:dyDescent="0.25">
       <c r="P41" t="s">
         <v>164</v>
       </c>
       <c r="Q41">
         <v>337</v>
       </c>
-      <c r="S41" t="s">
+      <c r="R41">
+        <f>ROUNDUP(Q41/SUM(Table3[Orders])*100,2)</f>
+        <v>0.62</v>
+      </c>
+      <c r="T41" t="s">
         <v>227</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>563</v>
       </c>
-      <c r="V41" t="s">
+      <c r="V41">
+        <f>ROUNDUP(U41/SUM(Table7[Orders])*100,2)</f>
+        <v>1.04</v>
+      </c>
+      <c r="X41" t="s">
         <v>43</v>
       </c>
-      <c r="W41">
+      <c r="Y41">
         <v>629</v>
       </c>
-    </row>
-    <row r="42" spans="16:23">
+      <c r="Z41">
+        <f>ROUNDUP(V41/SUM(Table8[Orders])*100,4)</f>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="16:26" x14ac:dyDescent="0.25">
       <c r="P42" t="s">
         <v>165</v>
       </c>
       <c r="Q42">
         <v>315</v>
       </c>
-      <c r="S42" t="s">
+      <c r="R42">
+        <f>ROUNDUP(Q42/SUM(Table3[Orders])*100,2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T42" t="s">
         <v>228</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>554</v>
       </c>
-      <c r="V42" t="s">
+      <c r="V42">
+        <f>ROUNDUP(U42/SUM(Table7[Orders])*100,2)</f>
+        <v>1.02</v>
+      </c>
+      <c r="X42" t="s">
         <v>59</v>
       </c>
-      <c r="W42">
+      <c r="Y42">
         <v>619</v>
       </c>
-    </row>
-    <row r="43" spans="16:23">
+      <c r="Z42">
+        <f>ROUNDUP(V42/SUM(Table8[Orders])*100,4)</f>
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="16:26" x14ac:dyDescent="0.25">
       <c r="P43" t="s">
         <v>166</v>
       </c>
       <c r="Q43">
         <v>306</v>
       </c>
-      <c r="S43" t="s">
+      <c r="R43">
+        <f>ROUNDUP(Q43/SUM(Table3[Orders])*100,2)</f>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="T43" t="s">
         <v>229</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>554</v>
       </c>
-      <c r="V43" t="s">
+      <c r="V43">
+        <f>ROUNDUP(U43/SUM(Table7[Orders])*100,2)</f>
+        <v>1.02</v>
+      </c>
+      <c r="X43" t="s">
         <v>82</v>
       </c>
-      <c r="W43">
+      <c r="Y43">
         <v>613</v>
       </c>
-    </row>
-    <row r="44" spans="16:23">
+      <c r="Z43">
+        <f>ROUNDUP(V43/SUM(Table8[Orders])*100,4)</f>
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="16:26" x14ac:dyDescent="0.25">
       <c r="P44" t="s">
         <v>167</v>
       </c>
       <c r="Q44">
         <v>261</v>
       </c>
-      <c r="S44" t="s">
+      <c r="R44">
+        <f>ROUNDUP(Q44/SUM(Table3[Orders])*100,2)</f>
+        <v>0.48</v>
+      </c>
+      <c r="T44" t="s">
         <v>230</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>534</v>
       </c>
-      <c r="V44" t="s">
+      <c r="V44">
+        <f>ROUNDUP(U44/SUM(Table7[Orders])*100,2)</f>
+        <v>0.98</v>
+      </c>
+      <c r="X44" t="s">
         <v>89</v>
       </c>
-      <c r="W44">
+      <c r="Y44">
         <v>611</v>
       </c>
-    </row>
-    <row r="45" spans="16:23">
+      <c r="Z44">
+        <f>ROUNDUP(V44/SUM(Table8[Orders])*100,4)</f>
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="16:26" x14ac:dyDescent="0.25">
       <c r="P45" t="s">
         <v>168</v>
       </c>
       <c r="Q45">
         <v>231</v>
       </c>
-      <c r="S45" t="s">
+      <c r="R45">
+        <f>ROUNDUP(Q45/SUM(Table3[Orders])*100,2)</f>
+        <v>0.43</v>
+      </c>
+      <c r="T45" t="s">
         <v>231</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>533</v>
       </c>
-      <c r="V45" t="s">
+      <c r="V45">
+        <f>ROUNDUP(U45/SUM(Table7[Orders])*100,2)</f>
+        <v>0.98</v>
+      </c>
+      <c r="X45" t="s">
         <v>66</v>
       </c>
-      <c r="W45">
+      <c r="Y45">
         <v>608</v>
       </c>
-    </row>
-    <row r="46" spans="16:23">
+      <c r="Z45">
+        <f>ROUNDUP(V45/SUM(Table8[Orders])*100,4)</f>
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="16:26" x14ac:dyDescent="0.25">
       <c r="P46" t="s">
         <v>169</v>
       </c>
       <c r="Q46">
         <v>209</v>
       </c>
-      <c r="S46" t="s">
+      <c r="R46">
+        <f>ROUNDUP(Q46/SUM(Table3[Orders])*100,2)</f>
+        <v>0.39</v>
+      </c>
+      <c r="T46" t="s">
         <v>232</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>516</v>
       </c>
-      <c r="V46" t="s">
+      <c r="V46">
+        <f>ROUNDUP(U46/SUM(Table7[Orders])*100,2)</f>
+        <v>0.95</v>
+      </c>
+      <c r="X46" t="s">
         <v>21</v>
       </c>
-      <c r="W46">
+      <c r="Y46">
         <v>600</v>
       </c>
-    </row>
-    <row r="47" spans="16:23">
+      <c r="Z46">
+        <f>ROUNDUP(V46/SUM(Table8[Orders])*100,4)</f>
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="16:26" x14ac:dyDescent="0.25">
       <c r="P47" t="s">
         <v>170</v>
       </c>
       <c r="Q47">
         <v>175</v>
       </c>
-      <c r="S47" t="s">
+      <c r="R47">
+        <f>ROUNDUP(Q47/SUM(Table3[Orders])*100,2)</f>
+        <v>0.33</v>
+      </c>
+      <c r="T47" t="s">
         <v>233</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>506</v>
       </c>
-      <c r="V47" t="s">
+      <c r="V47">
+        <f>ROUNDUP(U47/SUM(Table7[Orders])*100,2)</f>
+        <v>0.93</v>
+      </c>
+      <c r="X47" t="s">
         <v>77</v>
       </c>
-      <c r="W47">
+      <c r="Y47">
         <v>572</v>
       </c>
-    </row>
-    <row r="48" spans="16:23">
+      <c r="Z47">
+        <f>ROUNDUP(V47/SUM(Table8[Orders])*100,4)</f>
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="16:26" x14ac:dyDescent="0.25">
       <c r="P48" t="s">
         <v>171</v>
       </c>
       <c r="Q48">
         <v>130</v>
       </c>
-      <c r="S48" t="s">
+      <c r="R48">
+        <f>ROUNDUP(Q48/SUM(Table3[Orders])*100,2)</f>
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="T48" t="s">
         <v>234</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>489</v>
       </c>
-      <c r="V48" t="s">
+      <c r="V48">
+        <f>ROUNDUP(U48/SUM(Table7[Orders])*100,2)</f>
+        <v>0.9</v>
+      </c>
+      <c r="X48" t="s">
         <v>31</v>
       </c>
-      <c r="W48">
+      <c r="Y48">
         <v>570</v>
       </c>
-    </row>
-    <row r="49" spans="16:23">
+      <c r="Z48">
+        <f>ROUNDUP(V48/SUM(Table8[Orders])*100,4)</f>
+        <v>1.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="16:26" x14ac:dyDescent="0.25">
       <c r="P49" t="s">
         <v>172</v>
       </c>
       <c r="Q49">
         <v>120</v>
       </c>
-      <c r="S49" t="s">
+      <c r="R49">
+        <f>ROUNDUP(Q49/SUM(Table3[Orders])*100,2)</f>
+        <v>0.22</v>
+      </c>
+      <c r="T49" t="s">
         <v>160</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>477</v>
       </c>
-      <c r="V49" t="s">
+      <c r="V49">
+        <f>ROUNDUP(U49/SUM(Table7[Orders])*100,2)</f>
+        <v>0.88</v>
+      </c>
+      <c r="X49" t="s">
         <v>34</v>
       </c>
-      <c r="W49">
+      <c r="Y49">
         <v>566</v>
       </c>
-    </row>
-    <row r="50" spans="16:23">
-      <c r="S50" t="s">
+      <c r="Z49">
+        <f>ROUNDUP(V49/SUM(Table8[Orders])*100,4)</f>
+        <v>1.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="16:26" x14ac:dyDescent="0.25">
+      <c r="T50" t="s">
         <v>235</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>477</v>
       </c>
-      <c r="V50" t="s">
+      <c r="V50">
+        <f>ROUNDUP(U50/SUM(Table7[Orders])*100,2)</f>
+        <v>0.88</v>
+      </c>
+      <c r="X50" t="s">
         <v>101</v>
       </c>
-      <c r="W50">
+      <c r="Y50">
         <v>541</v>
       </c>
-    </row>
-    <row r="51" spans="16:23">
-      <c r="S51" t="s">
+      <c r="Z50">
+        <f>ROUNDUP(V50/SUM(Table8[Orders])*100,4)</f>
+        <v>1.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="16:26" x14ac:dyDescent="0.25">
+      <c r="T51" t="s">
         <v>236</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <v>475</v>
       </c>
-      <c r="V51" t="s">
+      <c r="V51">
+        <f>ROUNDUP(U51/SUM(Table7[Orders])*100,2)</f>
+        <v>0.87</v>
+      </c>
+      <c r="X51" t="s">
         <v>118</v>
       </c>
-      <c r="W51">
+      <c r="Y51">
         <v>527</v>
       </c>
-    </row>
-    <row r="52" spans="16:23">
-      <c r="S52" t="s">
+      <c r="Z51">
+        <f>ROUNDUP(V51/SUM(Table8[Orders])*100,4)</f>
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="16:26" x14ac:dyDescent="0.25">
+      <c r="T52" t="s">
         <v>237</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <v>460</v>
       </c>
-      <c r="V52" t="s">
+      <c r="V52">
+        <f>ROUNDUP(U52/SUM(Table7[Orders])*100,2)</f>
+        <v>0.85</v>
+      </c>
+      <c r="X52" t="s">
         <v>14</v>
       </c>
-      <c r="W52">
+      <c r="Y52">
         <v>460</v>
       </c>
-    </row>
-    <row r="53" spans="16:23">
-      <c r="S53" t="s">
+      <c r="Z52">
+        <f>ROUNDUP(V52/SUM(Table8[Orders])*100,4)</f>
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="16:26" x14ac:dyDescent="0.25">
+      <c r="T53" t="s">
         <v>238</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <v>456</v>
       </c>
-      <c r="V53" t="s">
+      <c r="V53">
+        <f>ROUNDUP(U53/SUM(Table7[Orders])*100,2)</f>
+        <v>0.84</v>
+      </c>
+      <c r="X53" t="s">
         <v>11</v>
       </c>
-      <c r="W53">
+      <c r="Y53">
         <v>450</v>
       </c>
-    </row>
-    <row r="54" spans="16:23">
-      <c r="S54" t="s">
+      <c r="Z53">
+        <f>ROUNDUP(V53/SUM(Table8[Orders])*100,4)</f>
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="16:26" x14ac:dyDescent="0.25">
+      <c r="T54" t="s">
         <v>239</v>
       </c>
-      <c r="T54">
+      <c r="U54">
         <v>443</v>
       </c>
-      <c r="V54" t="s">
+      <c r="V54">
+        <f>ROUNDUP(U54/SUM(Table7[Orders])*100,2)</f>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="X54" t="s">
         <v>96</v>
       </c>
-      <c r="W54">
+      <c r="Y54">
         <v>433</v>
       </c>
-    </row>
-    <row r="55" spans="16:23">
-      <c r="S55" t="s">
+      <c r="Z54">
+        <f>ROUNDUP(V54/SUM(Table8[Orders])*100,4)</f>
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="16:26" x14ac:dyDescent="0.25">
+      <c r="T55" t="s">
         <v>240</v>
       </c>
-      <c r="T55">
+      <c r="U55">
         <v>439</v>
       </c>
-      <c r="V55" t="s">
+      <c r="V55">
+        <f>ROUNDUP(U55/SUM(Table7[Orders])*100,2)</f>
+        <v>0.81</v>
+      </c>
+      <c r="X55" t="s">
         <v>47</v>
       </c>
-      <c r="W55">
+      <c r="Y55">
         <v>406</v>
       </c>
-    </row>
-    <row r="56" spans="16:23">
-      <c r="S56" t="s">
+      <c r="Z55">
+        <f>ROUNDUP(V55/SUM(Table8[Orders])*100,4)</f>
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="16:26" x14ac:dyDescent="0.25">
+      <c r="T56" t="s">
         <v>241</v>
       </c>
-      <c r="T56">
+      <c r="U56">
         <v>431</v>
       </c>
-      <c r="V56" t="s">
+      <c r="V56">
+        <f>ROUNDUP(U56/SUM(Table7[Orders])*100,2)</f>
+        <v>0.79</v>
+      </c>
+      <c r="X56" t="s">
         <v>113</v>
       </c>
-      <c r="W56">
+      <c r="Y56">
         <v>398</v>
       </c>
-    </row>
-    <row r="57" spans="16:23">
-      <c r="S57" t="s">
+      <c r="Z56">
+        <f>ROUNDUP(V56/SUM(Table8[Orders])*100,4)</f>
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="16:26" x14ac:dyDescent="0.25">
+      <c r="T57" t="s">
         <v>242</v>
       </c>
-      <c r="T57">
+      <c r="U57">
         <v>431</v>
       </c>
-      <c r="V57" t="s">
+      <c r="V57">
+        <f>ROUNDUP(U57/SUM(Table7[Orders])*100,2)</f>
+        <v>0.79</v>
+      </c>
+      <c r="X57" t="s">
         <v>45</v>
       </c>
-      <c r="W57">
+      <c r="Y57">
         <v>364</v>
       </c>
-    </row>
-    <row r="58" spans="16:23">
-      <c r="S58" t="s">
+      <c r="Z57">
+        <f>ROUNDUP(V57/SUM(Table8[Orders])*100,4)</f>
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="16:26" x14ac:dyDescent="0.25">
+      <c r="T58" t="s">
         <v>243</v>
       </c>
-      <c r="T58">
+      <c r="U58">
         <v>406</v>
       </c>
-      <c r="V58" t="s">
+      <c r="V58">
+        <f>ROUNDUP(U58/SUM(Table7[Orders])*100,2)</f>
+        <v>0.75</v>
+      </c>
+      <c r="X58" t="s">
         <v>81</v>
       </c>
-      <c r="W58">
+      <c r="Y58">
         <v>350</v>
       </c>
-    </row>
-    <row r="59" spans="16:23">
-      <c r="S59" t="s">
+      <c r="Z58">
+        <f>ROUNDUP(V58/SUM(Table8[Orders])*100,4)</f>
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="16:26" x14ac:dyDescent="0.25">
+      <c r="T59" t="s">
         <v>244</v>
       </c>
-      <c r="T59">
+      <c r="U59">
         <v>381</v>
       </c>
-      <c r="V59" t="s">
+      <c r="V59">
+        <f>ROUNDUP(U59/SUM(Table7[Orders])*100,2)</f>
+        <v>0.7</v>
+      </c>
+      <c r="X59" t="s">
         <v>60</v>
       </c>
-      <c r="W59">
+      <c r="Y59">
         <v>273</v>
       </c>
-    </row>
-    <row r="60" spans="16:23">
-      <c r="S60" t="s">
+      <c r="Z59">
+        <f>ROUNDUP(V59/SUM(Table8[Orders])*100,4)</f>
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="16:26" x14ac:dyDescent="0.25">
+      <c r="T60" t="s">
         <v>245</v>
       </c>
-      <c r="T60">
+      <c r="U60">
         <v>376</v>
       </c>
-      <c r="V60" t="s">
+      <c r="V60">
+        <f>ROUNDUP(U60/SUM(Table7[Orders])*100,2)</f>
+        <v>0.69000000000000006</v>
+      </c>
+      <c r="X60" t="s">
         <v>85</v>
       </c>
-      <c r="W60">
+      <c r="Y60">
         <v>269</v>
       </c>
-    </row>
-    <row r="61" spans="16:23">
-      <c r="S61" t="s">
+      <c r="Z60">
+        <f>ROUNDUP(V60/SUM(Table8[Orders])*100,4)</f>
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="16:26" x14ac:dyDescent="0.25">
+      <c r="T61" t="s">
         <v>246</v>
       </c>
-      <c r="T61">
+      <c r="U61">
         <v>362</v>
       </c>
-      <c r="V61" t="s">
+      <c r="V61">
+        <f>ROUNDUP(U61/SUM(Table7[Orders])*100,2)</f>
+        <v>0.67</v>
+      </c>
+      <c r="X61" t="s">
         <v>32</v>
       </c>
-      <c r="W61">
+      <c r="Y61">
         <v>258</v>
       </c>
-    </row>
-    <row r="62" spans="16:23">
-      <c r="S62" t="s">
+      <c r="Z61">
+        <f>ROUNDUP(V61/SUM(Table8[Orders])*100,4)</f>
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="16:26" x14ac:dyDescent="0.25">
+      <c r="T62" t="s">
         <v>247</v>
       </c>
-      <c r="T62">
+      <c r="U62">
         <v>358</v>
       </c>
-      <c r="V62" t="s">
+      <c r="V62">
+        <f>ROUNDUP(U62/SUM(Table7[Orders])*100,2)</f>
+        <v>0.66</v>
+      </c>
+      <c r="X62" t="s">
         <v>103</v>
       </c>
-      <c r="W62">
+      <c r="Y62">
         <v>254</v>
       </c>
-    </row>
-    <row r="63" spans="16:23">
-      <c r="S63" t="s">
+      <c r="Z62">
+        <f>ROUNDUP(V62/SUM(Table8[Orders])*100,4)</f>
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="16:26" x14ac:dyDescent="0.25">
+      <c r="T63" t="s">
         <v>248</v>
       </c>
-      <c r="T63">
+      <c r="U63">
         <v>340</v>
       </c>
-      <c r="V63" t="s">
+      <c r="V63">
+        <f>ROUNDUP(U63/SUM(Table7[Orders])*100,2)</f>
+        <v>0.63</v>
+      </c>
+      <c r="X63" t="s">
         <v>112</v>
       </c>
-      <c r="W63">
+      <c r="Y63">
         <v>250</v>
       </c>
-    </row>
-    <row r="64" spans="16:23">
-      <c r="S64" t="s">
+      <c r="Z63">
+        <f>ROUNDUP(V63/SUM(Table8[Orders])*100,4)</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="16:26" x14ac:dyDescent="0.25">
+      <c r="T64" t="s">
         <v>249</v>
       </c>
-      <c r="T64">
+      <c r="U64">
         <v>338</v>
       </c>
-      <c r="V64" t="s">
+      <c r="V64">
+        <f>ROUNDUP(U64/SUM(Table7[Orders])*100,2)</f>
+        <v>0.62</v>
+      </c>
+      <c r="X64" t="s">
         <v>91</v>
       </c>
-      <c r="W64">
+      <c r="Y64">
         <v>249</v>
       </c>
-    </row>
-    <row r="65" spans="19:23">
-      <c r="S65" t="s">
+      <c r="Z64">
+        <f>ROUNDUP(V64/SUM(Table8[Orders])*100,4)</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T65" t="s">
         <v>250</v>
       </c>
-      <c r="T65">
+      <c r="U65">
         <v>337</v>
       </c>
-      <c r="V65" t="s">
+      <c r="V65">
+        <f>ROUNDUP(U65/SUM(Table7[Orders])*100,2)</f>
+        <v>0.62</v>
+      </c>
+      <c r="X65" t="s">
         <v>62</v>
       </c>
-      <c r="W65">
+      <c r="Y65">
         <v>247</v>
       </c>
-    </row>
-    <row r="66" spans="19:23">
-      <c r="S66" t="s">
+      <c r="Z65">
+        <f>ROUNDUP(V65/SUM(Table8[Orders])*100,4)</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T66" t="s">
         <v>251</v>
       </c>
-      <c r="T66">
+      <c r="U66">
         <v>331</v>
       </c>
-      <c r="V66" t="s">
+      <c r="V66">
+        <f>ROUNDUP(U66/SUM(Table7[Orders])*100,2)</f>
+        <v>0.61</v>
+      </c>
+      <c r="X66" t="s">
         <v>110</v>
       </c>
-      <c r="W66">
+      <c r="Y66">
         <v>244</v>
       </c>
-    </row>
-    <row r="67" spans="19:23">
-      <c r="S67" t="s">
+      <c r="Z66">
+        <f>ROUNDUP(V66/SUM(Table8[Orders])*100,4)</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T67" t="s">
         <v>252</v>
       </c>
-      <c r="T67">
+      <c r="U67">
         <v>321</v>
       </c>
-      <c r="V67" t="s">
+      <c r="V67">
+        <f>ROUNDUP(U67/SUM(Table7[Orders])*100,2)</f>
+        <v>0.59</v>
+      </c>
+      <c r="X67" t="s">
         <v>87</v>
       </c>
-      <c r="W67">
+      <c r="Y67">
         <v>231</v>
       </c>
-    </row>
-    <row r="68" spans="19:23">
-      <c r="S68" t="s">
+      <c r="Z67">
+        <f>ROUNDUP(V67/SUM(Table8[Orders])*100,4)</f>
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T68" t="s">
         <v>253</v>
       </c>
-      <c r="T68">
+      <c r="U68">
         <v>321</v>
       </c>
-      <c r="V68" t="s">
+      <c r="V68">
+        <f>ROUNDUP(U68/SUM(Table7[Orders])*100,2)</f>
+        <v>0.59</v>
+      </c>
+      <c r="X68" t="s">
         <v>79</v>
       </c>
-      <c r="W68">
+      <c r="Y68">
         <v>214</v>
       </c>
-    </row>
-    <row r="69" spans="19:23">
-      <c r="S69" t="s">
+      <c r="Z68">
+        <f>ROUNDUP(V68/SUM(Table8[Orders])*100,4)</f>
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T69" t="s">
         <v>254</v>
       </c>
-      <c r="T69">
+      <c r="U69">
         <v>316</v>
       </c>
-      <c r="V69" t="s">
+      <c r="V69">
+        <f>ROUNDUP(U69/SUM(Table7[Orders])*100,2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X69" t="s">
         <v>30</v>
       </c>
-      <c r="W69">
+      <c r="Y69">
         <v>210</v>
       </c>
-    </row>
-    <row r="70" spans="19:23">
-      <c r="S70" t="s">
+      <c r="Z69">
+        <f>ROUNDUP(V69/SUM(Table8[Orders])*100,4)</f>
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T70" t="s">
         <v>255</v>
       </c>
-      <c r="T70">
+      <c r="U70">
         <v>315</v>
       </c>
-      <c r="V70" t="s">
+      <c r="V70">
+        <f>ROUNDUP(U70/SUM(Table7[Orders])*100,2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X70" t="s">
         <v>53</v>
       </c>
-      <c r="W70">
+      <c r="Y70">
         <v>207</v>
       </c>
-    </row>
-    <row r="71" spans="19:23">
-      <c r="S71" t="s">
+      <c r="Z70">
+        <f>ROUNDUP(V70/SUM(Table8[Orders])*100,4)</f>
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T71" t="s">
         <v>166</v>
       </c>
-      <c r="T71">
+      <c r="U71">
         <v>306</v>
       </c>
-      <c r="V71" t="s">
+      <c r="V71">
+        <f>ROUNDUP(U71/SUM(Table7[Orders])*100,2)</f>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="X71" t="s">
         <v>58</v>
       </c>
-      <c r="W71">
+      <c r="Y71">
         <v>203</v>
       </c>
-    </row>
-    <row r="72" spans="19:23">
-      <c r="S72" t="s">
+      <c r="Z71">
+        <f>ROUNDUP(V71/SUM(Table8[Orders])*100,4)</f>
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T72" t="s">
         <v>256</v>
       </c>
-      <c r="T72">
+      <c r="U72">
         <v>276</v>
       </c>
-      <c r="V72" t="s">
+      <c r="V72">
+        <f>ROUNDUP(U72/SUM(Table7[Orders])*100,2)</f>
+        <v>0.51</v>
+      </c>
+      <c r="X72" t="s">
         <v>70</v>
       </c>
-      <c r="W72">
+      <c r="Y72">
         <v>203</v>
       </c>
-    </row>
-    <row r="73" spans="19:23">
-      <c r="S73" t="s">
+      <c r="Z72">
+        <f>ROUNDUP(V72/SUM(Table8[Orders])*100,4)</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T73" t="s">
         <v>257</v>
       </c>
-      <c r="T73">
+      <c r="U73">
         <v>267</v>
       </c>
-      <c r="V73" t="s">
+      <c r="V73">
+        <f>ROUNDUP(U73/SUM(Table7[Orders])*100,2)</f>
+        <v>0.49</v>
+      </c>
+      <c r="X73" t="s">
         <v>73</v>
       </c>
-      <c r="W73">
+      <c r="Y73">
         <v>200</v>
       </c>
-    </row>
-    <row r="74" spans="19:23">
-      <c r="S74" t="s">
+      <c r="Z73">
+        <f>ROUNDUP(V73/SUM(Table8[Orders])*100,4)</f>
+        <v>9.0000000000000008E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T74" t="s">
         <v>258</v>
       </c>
-      <c r="T74">
+      <c r="U74">
         <v>264</v>
       </c>
-      <c r="V74" t="s">
+      <c r="V74">
+        <f>ROUNDUP(U74/SUM(Table7[Orders])*100,2)</f>
+        <v>0.49</v>
+      </c>
+      <c r="X74" t="s">
         <v>36</v>
       </c>
-      <c r="W74">
+      <c r="Y74">
         <v>195</v>
       </c>
-    </row>
-    <row r="75" spans="19:23">
-      <c r="S75" t="s">
+      <c r="Z74">
+        <f>ROUNDUP(V74/SUM(Table8[Orders])*100,4)</f>
+        <v>9.0000000000000008E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T75" t="s">
         <v>259</v>
       </c>
-      <c r="T75">
+      <c r="U75">
         <v>263</v>
       </c>
-      <c r="V75" t="s">
+      <c r="V75">
+        <f>ROUNDUP(U75/SUM(Table7[Orders])*100,2)</f>
+        <v>0.49</v>
+      </c>
+      <c r="X75" t="s">
         <v>99</v>
       </c>
-      <c r="W75">
+      <c r="Y75">
         <v>189</v>
       </c>
-    </row>
-    <row r="76" spans="19:23">
-      <c r="S76" t="s">
+      <c r="Z75">
+        <f>ROUNDUP(V75/SUM(Table8[Orders])*100,4)</f>
+        <v>9.0000000000000008E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T76" t="s">
         <v>260</v>
       </c>
-      <c r="T76">
+      <c r="U76">
         <v>261</v>
       </c>
-      <c r="V76" t="s">
+      <c r="V76">
+        <f>ROUNDUP(U76/SUM(Table7[Orders])*100,2)</f>
+        <v>0.48</v>
+      </c>
+      <c r="X76" t="s">
         <v>50</v>
       </c>
-      <c r="W76">
+      <c r="Y76">
         <v>172</v>
       </c>
-    </row>
-    <row r="77" spans="19:23">
-      <c r="S77" t="s">
+      <c r="Z76">
+        <f>ROUNDUP(V76/SUM(Table8[Orders])*100,4)</f>
+        <v>9.0000000000000008E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T77" t="s">
         <v>261</v>
       </c>
-      <c r="T77">
+      <c r="U77">
         <v>261</v>
       </c>
-      <c r="V77" t="s">
+      <c r="V77">
+        <f>ROUNDUP(U77/SUM(Table7[Orders])*100,2)</f>
+        <v>0.48</v>
+      </c>
+      <c r="X77" t="s">
         <v>39</v>
       </c>
-      <c r="W77">
+      <c r="Y77">
         <v>162</v>
       </c>
-    </row>
-    <row r="78" spans="19:23">
-      <c r="S78" t="s">
+      <c r="Z77">
+        <f>ROUNDUP(V77/SUM(Table8[Orders])*100,4)</f>
+        <v>9.0000000000000008E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T78" t="s">
         <v>262</v>
       </c>
-      <c r="T78">
+      <c r="U78">
         <v>248</v>
       </c>
-      <c r="V78" t="s">
+      <c r="V78">
+        <f>ROUNDUP(U78/SUM(Table7[Orders])*100,2)</f>
+        <v>0.46</v>
+      </c>
+      <c r="X78" t="s">
         <v>40</v>
       </c>
-      <c r="W78">
+      <c r="Y78">
         <v>158</v>
       </c>
-    </row>
-    <row r="79" spans="19:23">
-      <c r="S79" t="s">
+      <c r="Z78">
+        <f>ROUNDUP(V78/SUM(Table8[Orders])*100,4)</f>
+        <v>9.0000000000000008E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T79" t="s">
         <v>263</v>
       </c>
-      <c r="T79">
+      <c r="U79">
         <v>239</v>
       </c>
-      <c r="V79" t="s">
+      <c r="V79">
+        <f>ROUNDUP(U79/SUM(Table7[Orders])*100,2)</f>
+        <v>0.44</v>
+      </c>
+      <c r="X79" t="s">
         <v>94</v>
       </c>
-      <c r="W79">
+      <c r="Y79">
         <v>154</v>
       </c>
-    </row>
-    <row r="80" spans="19:23">
-      <c r="S80" t="s">
+      <c r="Z79">
+        <f>ROUNDUP(V79/SUM(Table8[Orders])*100,4)</f>
+        <v>9.0000000000000008E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T80" t="s">
         <v>264</v>
       </c>
-      <c r="T80">
+      <c r="U80">
         <v>231</v>
       </c>
-      <c r="V80" t="s">
+      <c r="V80">
+        <f>ROUNDUP(U80/SUM(Table7[Orders])*100,2)</f>
+        <v>0.43</v>
+      </c>
+      <c r="X80" t="s">
         <v>98</v>
       </c>
-      <c r="W80">
+      <c r="Y80">
         <v>148</v>
       </c>
-    </row>
-    <row r="81" spans="19:23">
-      <c r="S81" t="s">
+      <c r="Z80">
+        <f>ROUNDUP(V80/SUM(Table8[Orders])*100,4)</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T81" t="s">
         <v>265</v>
       </c>
-      <c r="T81">
+      <c r="U81">
         <v>230</v>
       </c>
-      <c r="V81" t="s">
+      <c r="V81">
+        <f>ROUNDUP(U81/SUM(Table7[Orders])*100,2)</f>
+        <v>0.43</v>
+      </c>
+      <c r="X81" t="s">
         <v>108</v>
       </c>
-      <c r="W81">
+      <c r="Y81">
         <v>146</v>
       </c>
-    </row>
-    <row r="82" spans="19:23">
-      <c r="S82" t="s">
+      <c r="Z81">
+        <f>ROUNDUP(V81/SUM(Table8[Orders])*100,4)</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T82" t="s">
         <v>266</v>
       </c>
-      <c r="T82">
+      <c r="U82">
         <v>221</v>
       </c>
-      <c r="V82" t="s">
+      <c r="V82">
+        <f>ROUNDUP(U82/SUM(Table7[Orders])*100,2)</f>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="X82" t="s">
         <v>44</v>
       </c>
-      <c r="W82">
+      <c r="Y82">
         <v>145</v>
       </c>
-    </row>
-    <row r="83" spans="19:23">
-      <c r="S83" t="s">
+      <c r="Z82">
+        <f>ROUNDUP(V82/SUM(Table8[Orders])*100,4)</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="83" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T83" t="s">
         <v>267</v>
       </c>
-      <c r="T83">
+      <c r="U83">
         <v>209</v>
       </c>
-      <c r="V83" t="s">
+      <c r="V83">
+        <f>ROUNDUP(U83/SUM(Table7[Orders])*100,2)</f>
+        <v>0.39</v>
+      </c>
+      <c r="X83" t="s">
         <v>33</v>
       </c>
-      <c r="W83">
+      <c r="Y83">
         <v>136</v>
       </c>
-    </row>
-    <row r="84" spans="19:23">
-      <c r="S84" t="s">
+      <c r="Z83">
+        <f>ROUNDUP(V83/SUM(Table8[Orders])*100,4)</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T84" t="s">
         <v>268</v>
       </c>
-      <c r="T84">
+      <c r="U84">
         <v>206</v>
       </c>
-      <c r="V84" t="s">
+      <c r="V84">
+        <f>ROUNDUP(U84/SUM(Table7[Orders])*100,2)</f>
+        <v>0.38</v>
+      </c>
+      <c r="X84" t="s">
         <v>111</v>
       </c>
-      <c r="W84">
+      <c r="Y84">
         <v>125</v>
       </c>
-    </row>
-    <row r="85" spans="19:23">
-      <c r="S85" t="s">
+      <c r="Z84">
+        <f>ROUNDUP(V84/SUM(Table8[Orders])*100,4)</f>
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T85" t="s">
         <v>269</v>
       </c>
-      <c r="T85">
+      <c r="U85">
         <v>198</v>
       </c>
-      <c r="V85" t="s">
+      <c r="V85">
+        <f>ROUNDUP(U85/SUM(Table7[Orders])*100,2)</f>
+        <v>0.37</v>
+      </c>
+      <c r="X85" t="s">
         <v>22</v>
       </c>
-      <c r="W85">
+      <c r="Y85">
         <v>107</v>
       </c>
-    </row>
-    <row r="86" spans="19:23">
-      <c r="S86" t="s">
+      <c r="Z85">
+        <f>ROUNDUP(V85/SUM(Table8[Orders])*100,4)</f>
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T86" t="s">
         <v>270</v>
       </c>
-      <c r="T86">
+      <c r="U86">
         <v>196</v>
       </c>
-      <c r="V86" t="s">
+      <c r="V86">
+        <f>ROUNDUP(U86/SUM(Table7[Orders])*100,2)</f>
+        <v>0.36</v>
+      </c>
+      <c r="X86" t="s">
         <v>72</v>
       </c>
-      <c r="W86">
+      <c r="Y86">
         <v>103</v>
       </c>
-    </row>
-    <row r="87" spans="19:23">
-      <c r="S87" t="s">
+      <c r="Z86">
+        <f>ROUNDUP(V86/SUM(Table8[Orders])*100,4)</f>
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T87" t="s">
         <v>271</v>
       </c>
-      <c r="T87">
+      <c r="U87">
         <v>185</v>
       </c>
-      <c r="V87" t="s">
+      <c r="V87">
+        <f>ROUNDUP(U87/SUM(Table7[Orders])*100,2)</f>
+        <v>0.34</v>
+      </c>
+      <c r="X87" t="s">
         <v>84</v>
       </c>
-      <c r="W87">
+      <c r="Y87">
         <v>103</v>
       </c>
-    </row>
-    <row r="88" spans="19:23">
-      <c r="S88" t="s">
+      <c r="Z87">
+        <f>ROUNDUP(V87/SUM(Table8[Orders])*100,4)</f>
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T88" t="s">
         <v>272</v>
       </c>
-      <c r="T88">
+      <c r="U88">
         <v>176</v>
       </c>
-      <c r="V88" t="s">
+      <c r="V88">
+        <f>ROUNDUP(U88/SUM(Table7[Orders])*100,2)</f>
+        <v>0.33</v>
+      </c>
+      <c r="X88" t="s">
         <v>69</v>
       </c>
-      <c r="W88">
+      <c r="Y88">
         <v>100</v>
       </c>
-    </row>
-    <row r="89" spans="19:23">
-      <c r="S89" t="s">
+      <c r="Z88">
+        <f>ROUNDUP(V88/SUM(Table8[Orders])*100,4)</f>
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T89" t="s">
         <v>273</v>
       </c>
-      <c r="T89">
+      <c r="U89">
         <v>175</v>
       </c>
-      <c r="V89" t="s">
+      <c r="V89">
+        <f>ROUNDUP(U89/SUM(Table7[Orders])*100,2)</f>
+        <v>0.33</v>
+      </c>
+      <c r="X89" t="s">
         <v>117</v>
       </c>
-      <c r="W89">
+      <c r="Y89">
         <v>92</v>
       </c>
-    </row>
-    <row r="90" spans="19:23">
-      <c r="S90" t="s">
+      <c r="Z89">
+        <f>ROUNDUP(V89/SUM(Table8[Orders])*100,4)</f>
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T90" t="s">
         <v>274</v>
       </c>
-      <c r="T90">
+      <c r="U90">
         <v>169</v>
       </c>
-      <c r="V90" t="s">
+      <c r="V90">
+        <f>ROUNDUP(U90/SUM(Table7[Orders])*100,2)</f>
+        <v>0.31</v>
+      </c>
+      <c r="X90" t="s">
         <v>83</v>
       </c>
-      <c r="W90">
+      <c r="Y90">
         <v>81</v>
       </c>
-    </row>
-    <row r="91" spans="19:23">
-      <c r="S91" t="s">
+      <c r="Z90">
+        <f>ROUNDUP(V90/SUM(Table8[Orders])*100,4)</f>
+        <v>6.0000000000000006E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T91" t="s">
         <v>275</v>
       </c>
-      <c r="T91">
+      <c r="U91">
         <v>161</v>
       </c>
-      <c r="V91" t="s">
+      <c r="V91">
+        <f>ROUNDUP(U91/SUM(Table7[Orders])*100,2)</f>
+        <v>0.3</v>
+      </c>
+      <c r="X91" t="s">
         <v>80</v>
       </c>
-      <c r="W91">
+      <c r="Y91">
         <v>75</v>
       </c>
-    </row>
-    <row r="92" spans="19:23">
-      <c r="S92" t="s">
+      <c r="Z91">
+        <f>ROUNDUP(V91/SUM(Table8[Orders])*100,4)</f>
+        <v>6.0000000000000006E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T92" t="s">
         <v>276</v>
       </c>
-      <c r="T92">
+      <c r="U92">
         <v>158</v>
       </c>
-      <c r="V92" t="s">
+      <c r="V92">
+        <f>ROUNDUP(U92/SUM(Table7[Orders])*100,2)</f>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="X92" t="s">
         <v>115</v>
       </c>
-      <c r="W92">
+      <c r="Y92">
         <v>72</v>
       </c>
-    </row>
-    <row r="93" spans="19:23">
-      <c r="S93" t="s">
+      <c r="Z92">
+        <f>ROUNDUP(V92/SUM(Table8[Orders])*100,4)</f>
+        <v>6.0000000000000006E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T93" t="s">
         <v>277</v>
       </c>
-      <c r="T93">
+      <c r="U93">
         <v>150</v>
       </c>
-      <c r="V93" t="s">
+      <c r="V93">
+        <f>ROUNDUP(U93/SUM(Table7[Orders])*100,2)</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="X93" t="s">
         <v>107</v>
       </c>
-      <c r="W93">
+      <c r="Y93">
         <v>72</v>
       </c>
-    </row>
-    <row r="94" spans="19:23">
-      <c r="S94" t="s">
+      <c r="Z93">
+        <f>ROUNDUP(V93/SUM(Table8[Orders])*100,4)</f>
+        <v>6.0000000000000006E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T94" t="s">
         <v>278</v>
       </c>
-      <c r="T94">
+      <c r="U94">
         <v>137</v>
       </c>
-      <c r="V94" t="s">
+      <c r="V94">
+        <f>ROUNDUP(U94/SUM(Table7[Orders])*100,2)</f>
+        <v>0.26</v>
+      </c>
+      <c r="X94" t="s">
         <v>10</v>
       </c>
-      <c r="W94">
+      <c r="Y94">
         <v>71</v>
       </c>
-    </row>
-    <row r="95" spans="19:23">
-      <c r="S95" t="s">
+      <c r="Z94">
+        <f>ROUNDUP(V94/SUM(Table8[Orders])*100,4)</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T95" t="s">
         <v>279</v>
       </c>
-      <c r="T95">
+      <c r="U95">
         <v>130</v>
       </c>
-      <c r="V95" t="s">
+      <c r="V95">
+        <f>ROUNDUP(U95/SUM(Table7[Orders])*100,2)</f>
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="X95" t="s">
         <v>56</v>
       </c>
-      <c r="W95">
+      <c r="Y95">
         <v>59</v>
       </c>
-    </row>
-    <row r="96" spans="19:23">
-      <c r="S96" t="s">
+      <c r="Z95">
+        <f>ROUNDUP(V95/SUM(Table8[Orders])*100,4)</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T96" t="s">
         <v>280</v>
       </c>
-      <c r="T96">
+      <c r="U96">
         <v>121</v>
       </c>
-      <c r="V96" t="s">
+      <c r="V96">
+        <f>ROUNDUP(U96/SUM(Table7[Orders])*100,2)</f>
+        <v>0.23</v>
+      </c>
+      <c r="X96" t="s">
         <v>61</v>
       </c>
-      <c r="W96">
+      <c r="Y96">
         <v>56</v>
       </c>
-    </row>
-    <row r="97" spans="19:23">
-      <c r="S97" t="s">
+      <c r="Z96">
+        <f>ROUNDUP(V96/SUM(Table8[Orders])*100,4)</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T97" t="s">
         <v>281</v>
       </c>
-      <c r="T97">
+      <c r="U97">
         <v>120</v>
       </c>
-      <c r="V97" t="s">
+      <c r="V97">
+        <f>ROUNDUP(U97/SUM(Table7[Orders])*100,2)</f>
+        <v>0.22</v>
+      </c>
+      <c r="X97" t="s">
         <v>100</v>
       </c>
-      <c r="W97">
+      <c r="Y97">
         <v>51</v>
       </c>
-    </row>
-    <row r="98" spans="19:23">
-      <c r="S98" t="s">
+      <c r="Z97">
+        <f>ROUNDUP(V97/SUM(Table8[Orders])*100,4)</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="98" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T98" t="s">
         <v>282</v>
       </c>
-      <c r="T98">
+      <c r="U98">
         <v>109</v>
       </c>
-      <c r="V98" t="s">
+      <c r="V98">
+        <f>ROUNDUP(U98/SUM(Table7[Orders])*100,2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="X98" t="s">
         <v>114</v>
       </c>
-      <c r="W98">
+      <c r="Y98">
         <v>50</v>
       </c>
-    </row>
-    <row r="99" spans="19:23">
-      <c r="S99" t="s">
+      <c r="Z98">
+        <f>ROUNDUP(V98/SUM(Table8[Orders])*100,4)</f>
+        <v>3.9999999999999996E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T99" t="s">
         <v>283</v>
       </c>
-      <c r="T99">
+      <c r="U99">
         <v>98</v>
       </c>
-      <c r="V99" t="s">
+      <c r="V99">
+        <f>ROUNDUP(U99/SUM(Table7[Orders])*100,2)</f>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="X99" t="s">
         <v>41</v>
       </c>
-      <c r="W99">
+      <c r="Y99">
         <v>44</v>
       </c>
-    </row>
-    <row r="100" spans="19:23">
-      <c r="S100" t="s">
+      <c r="Z99">
+        <f>ROUNDUP(V99/SUM(Table8[Orders])*100,4)</f>
+        <v>3.9999999999999996E-4</v>
+      </c>
+    </row>
+    <row r="100" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T100" t="s">
         <v>284</v>
       </c>
-      <c r="T100">
+      <c r="U100">
         <v>90</v>
       </c>
-      <c r="V100" t="s">
+      <c r="V100">
+        <f>ROUNDUP(U100/SUM(Table7[Orders])*100,2)</f>
+        <v>0.17</v>
+      </c>
+      <c r="X100" t="s">
         <v>13</v>
       </c>
-      <c r="W100">
+      <c r="Y100">
         <v>40</v>
       </c>
-    </row>
-    <row r="101" spans="19:23">
-      <c r="S101" t="s">
+      <c r="Z100">
+        <f>ROUNDUP(V100/SUM(Table8[Orders])*100,4)</f>
+        <v>3.9999999999999996E-4</v>
+      </c>
+    </row>
+    <row r="101" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T101" t="s">
         <v>285</v>
       </c>
-      <c r="T101">
+      <c r="U101">
         <v>79</v>
       </c>
-      <c r="V101" t="s">
+      <c r="V101">
+        <f>ROUNDUP(U101/SUM(Table7[Orders])*100,2)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="X101" t="s">
         <v>102</v>
       </c>
-      <c r="W101">
+      <c r="Y101">
         <v>40</v>
       </c>
-    </row>
-    <row r="102" spans="19:23">
-      <c r="S102" t="s">
+      <c r="Z101">
+        <f>ROUNDUP(V101/SUM(Table8[Orders])*100,4)</f>
+        <v>3.0000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T102" t="s">
         <v>286</v>
       </c>
-      <c r="T102">
+      <c r="U102">
         <v>70</v>
       </c>
-      <c r="V102" t="s">
+      <c r="V102">
+        <f>ROUNDUP(U102/SUM(Table7[Orders])*100,2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="X102" t="s">
         <v>12</v>
       </c>
-      <c r="W102">
+      <c r="Y102">
         <v>39</v>
       </c>
-    </row>
-    <row r="103" spans="19:23">
-      <c r="S103" t="s">
+      <c r="Z102">
+        <f>ROUNDUP(V102/SUM(Table8[Orders])*100,4)</f>
+        <v>3.0000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="103" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T103" t="s">
         <v>287</v>
       </c>
-      <c r="T103">
+      <c r="U103">
         <v>57</v>
       </c>
-      <c r="V103" t="s">
+      <c r="V103">
+        <f>ROUNDUP(U103/SUM(Table7[Orders])*100,2)</f>
+        <v>0.11</v>
+      </c>
+      <c r="X103" t="s">
         <v>75</v>
       </c>
-      <c r="W103">
+      <c r="Y103">
         <v>34</v>
       </c>
-    </row>
-    <row r="104" spans="19:23">
-      <c r="S104" t="s">
+      <c r="Z103">
+        <f>ROUNDUP(V103/SUM(Table8[Orders])*100,4)</f>
+        <v>3.0000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T104" t="s">
         <v>288</v>
       </c>
-      <c r="T104">
+      <c r="U104">
         <v>45</v>
       </c>
-      <c r="V104" t="s">
+      <c r="V104">
+        <f>ROUNDUP(U104/SUM(Table7[Orders])*100,2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="X104" t="s">
         <v>24</v>
       </c>
-      <c r="W104">
+      <c r="Y104">
         <v>33</v>
       </c>
-    </row>
-    <row r="105" spans="19:23">
-      <c r="S105" t="s">
+      <c r="Z104">
+        <f>ROUNDUP(V104/SUM(Table8[Orders])*100,4)</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T105" t="s">
         <v>289</v>
       </c>
-      <c r="T105">
+      <c r="U105">
         <v>37</v>
       </c>
-      <c r="V105" t="s">
+      <c r="V105">
+        <f>ROUNDUP(U105/SUM(Table7[Orders])*100,2)</f>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="X105" t="s">
         <v>71</v>
       </c>
-      <c r="W105">
+      <c r="Y105">
         <v>30</v>
       </c>
-    </row>
-    <row r="106" spans="19:23">
-      <c r="S106" t="s">
+      <c r="Z105">
+        <f>ROUNDUP(V105/SUM(Table8[Orders])*100,4)</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="T106" t="s">
         <v>290</v>
       </c>
-      <c r="T106">
+      <c r="U106">
         <v>32</v>
       </c>
-      <c r="V106" t="s">
+      <c r="V106">
+        <f>ROUNDUP(U106/SUM(Table7[Orders])*100,2)</f>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="X106" t="s">
         <v>95</v>
       </c>
-      <c r="W106">
+      <c r="Y106">
         <v>29</v>
       </c>
-    </row>
-    <row r="107" spans="19:23">
-      <c r="V107" t="s">
+      <c r="Z106">
+        <f>ROUNDUP(V106/SUM(Table8[Orders])*100,4)</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="X107" t="s">
         <v>16</v>
       </c>
-      <c r="W107">
+      <c r="Y107">
         <v>28</v>
       </c>
-    </row>
-    <row r="108" spans="19:23">
-      <c r="V108" t="s">
+      <c r="Z107">
+        <f>ROUNDUP(V107/SUM(Table8[Orders])*100,4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="X108" t="s">
         <v>19</v>
       </c>
-      <c r="W108">
+      <c r="Y108">
         <v>24</v>
       </c>
-    </row>
-    <row r="109" spans="19:23">
-      <c r="V109" t="s">
+      <c r="Z108">
+        <f>ROUNDUP(V108/SUM(Table8[Orders])*100,4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="X109" t="s">
         <v>9</v>
       </c>
-      <c r="W109">
+      <c r="Y109">
         <v>22</v>
       </c>
-    </row>
-    <row r="110" spans="19:23">
-      <c r="V110" t="s">
+      <c r="Z109">
+        <f>ROUNDUP(V109/SUM(Table8[Orders])*100,4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="X110" t="s">
         <v>93</v>
       </c>
-      <c r="W110">
+      <c r="Y110">
         <v>22</v>
       </c>
-    </row>
-    <row r="111" spans="19:23">
-      <c r="V111" t="s">
+      <c r="Z110">
+        <f>ROUNDUP(V110/SUM(Table8[Orders])*100,4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="X111" t="s">
         <v>76</v>
       </c>
-      <c r="W111">
+      <c r="Y111">
         <v>16</v>
       </c>
-    </row>
-    <row r="112" spans="19:23">
-      <c r="V112" t="s">
+      <c r="Z111">
+        <f>ROUNDUP(V111/SUM(Table8[Orders])*100,4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="20:26" x14ac:dyDescent="0.25">
+      <c r="X112" t="s">
         <v>55</v>
       </c>
-      <c r="W112">
+      <c r="Y112">
         <v>16</v>
       </c>
-    </row>
-    <row r="113" spans="22:23">
-      <c r="V113" t="s">
+      <c r="Z112">
+        <f>ROUNDUP(V112/SUM(Table8[Orders])*100,4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="24:26" x14ac:dyDescent="0.25">
+      <c r="X113" t="s">
         <v>54</v>
       </c>
-      <c r="W113">
+      <c r="Y113">
         <v>13</v>
       </c>
-    </row>
-    <row r="114" spans="22:23">
-      <c r="V114" t="s">
+      <c r="Z113">
+        <f>ROUNDUP(V113/SUM(Table8[Orders])*100,4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="24:26" x14ac:dyDescent="0.25">
+      <c r="X114" t="s">
         <v>52</v>
       </c>
-      <c r="W114">
+      <c r="Y114">
         <v>10</v>
       </c>
-    </row>
-    <row r="115" spans="22:23">
-      <c r="V115" t="s">
+      <c r="Z114">
+        <f>ROUNDUP(V114/SUM(Table8[Orders])*100,4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="24:26" x14ac:dyDescent="0.25">
+      <c r="X115" t="s">
         <v>92</v>
       </c>
-      <c r="W115">
+      <c r="Y115">
         <v>9</v>
+      </c>
+      <c r="Z115">
+        <f>V115/SUM(Table8[Orders])*100</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3810,24 +5027,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
